--- a/Result/Last Dance/best_fitness_results.xlsx
+++ b/Result/Last Dance/best_fitness_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\User\PiDinoSaur\Code\Python\CVRP\Lab MT Truck\Result\Last Dance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9AE1AF1-24EE-4E36-8008-C375A6952F7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E9725DF-C7B3-4478-A089-4C3287E67BEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3768,9 +3768,6 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3784,6 +3781,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4102,12 +4102,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="40"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="39"/>
     </row>
     <row r="4" spans="1:8" ht="36.75" customHeight="1">
       <c r="A4" s="18"/>
@@ -4189,23 +4189,23 @@
       <c r="D9" s="22"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="40"/>
+      <c r="A10" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="39"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
       <c r="A11" s="22"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="43" t="s">
+      <c r="B11" s="40"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="42" t="s">
         <v>1091</v>
       </c>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1"/>
@@ -4466,7 +4466,7 @@
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="37">
+      <c r="A26" s="44">
         <v>10</v>
       </c>
       <c r="B26" s="34">
@@ -4494,7 +4494,7 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="37"/>
+      <c r="A27" s="44"/>
       <c r="B27" s="34">
         <v>1</v>
       </c>
@@ -4520,7 +4520,7 @@
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="37"/>
+      <c r="A28" s="44"/>
       <c r="B28" s="34">
         <v>1.5</v>
       </c>
@@ -4546,7 +4546,7 @@
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="37">
+      <c r="A29" s="44">
         <v>15</v>
       </c>
       <c r="B29" s="34">
@@ -4574,7 +4574,7 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="37"/>
+      <c r="A30" s="44"/>
       <c r="B30" s="34">
         <v>1</v>
       </c>
@@ -4600,7 +4600,7 @@
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="37"/>
+      <c r="A31" s="44"/>
       <c r="B31" s="34">
         <v>1.5</v>
       </c>
@@ -4626,7 +4626,7 @@
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="37">
+      <c r="A32" s="44">
         <v>20</v>
       </c>
       <c r="B32" s="34">
@@ -4654,7 +4654,7 @@
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="37"/>
+      <c r="A33" s="44"/>
       <c r="B33" s="34">
         <v>1</v>
       </c>
@@ -4680,7 +4680,7 @@
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="37"/>
+      <c r="A34" s="44"/>
       <c r="B34" s="34">
         <v>1.5</v>
       </c>
@@ -4706,7 +4706,7 @@
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="37">
+      <c r="A35" s="44">
         <v>30</v>
       </c>
       <c r="B35" s="34">
@@ -4729,7 +4729,7 @@
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="37"/>
+      <c r="A36" s="44"/>
       <c r="B36" s="34">
         <v>1</v>
       </c>
@@ -4750,7 +4750,7 @@
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="37"/>
+      <c r="A37" s="44"/>
       <c r="B37" s="34">
         <v>1.5</v>
       </c>
@@ -4771,7 +4771,7 @@
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="37">
+      <c r="A38" s="44">
         <v>40</v>
       </c>
       <c r="B38" s="34">
@@ -4794,7 +4794,7 @@
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="37"/>
+      <c r="A39" s="44"/>
       <c r="B39" s="34">
         <v>1</v>
       </c>
@@ -4815,7 +4815,7 @@
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="37"/>
+      <c r="A40" s="44"/>
       <c r="B40" s="34">
         <v>1.5</v>
       </c>
@@ -4836,7 +4836,7 @@
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="37">
+      <c r="A41" s="44">
         <v>50</v>
       </c>
       <c r="B41" s="34">
@@ -4859,7 +4859,7 @@
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="37"/>
+      <c r="A42" s="44"/>
       <c r="B42" s="34">
         <v>1</v>
       </c>
@@ -4880,7 +4880,7 @@
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="37"/>
+      <c r="A43" s="44"/>
       <c r="B43" s="34">
         <v>1.5</v>
       </c>
@@ -4948,16 +4948,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="A41:A43"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="E11:G11"/>
     <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="A41:A43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -19232,10 +19232,13 @@
   <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="25" t="s">
@@ -29979,9 +29982,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="23" t="s">
